--- a/va_facility_data_2025-02-20/Greenfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Greenfield VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenfield%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc419e5f20ba14cc6bdd3cb6046a512c8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2226a3296b48477fa82c4674b3ba2b03"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R37c0f13da876435b927cdf3f42a276d0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R73f8aa653bce4db099e9ce82d36f0f6d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd58c01e0be8c4656af4f55167d9a76e0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5491a929e1eb4af3b99eb2152aca036f"/>
   </x:sheets>
 </x:workbook>
 </file>
